--- a/assets/template/countyreport_template.xlsx
+++ b/assets/template/countyreport_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22464" yWindow="0" windowWidth="22104" windowHeight="9984"/>
+    <workbookView xWindow="25272" yWindow="0" windowWidth="22104" windowHeight="9984"/>
   </bookViews>
   <sheets>
     <sheet name="ART Patients" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>MINISTRY OF HEALTH, NASCOP Unit</t>
   </si>
@@ -315,12 +315,37 @@
   <si>
     <t>Pipeline</t>
   </si>
+  <si>
+    <t>COMMODITIES - ISSUES</t>
+  </si>
+  <si>
+    <t>Commodity/Drug</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Pack Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +591,37 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -720,10 +776,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -854,6 +911,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,30 +985,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -929,8 +997,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1285,7 +1357,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1300,14 +1372,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="44.4" customHeight="1">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1319,16 +1391,16 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -1340,14 +1412,14 @@
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -1359,16 +1431,16 @@
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17" ht="14.4">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="29"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1380,20 +1452,20 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="76"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -1405,18 +1477,18 @@
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="6"/>
       <c r="D6" s="25"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="88"/>
+      <c r="G6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -1428,16 +1500,16 @@
       <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="6"/>
       <c r="D7" s="25"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="32"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -1449,10 +1521,10 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="6"/>
       <c r="D8" s="25"/>
       <c r="E8" s="6"/>
@@ -1476,10 +1548,10 @@
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="14.4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1670,12 +1742,12 @@
       <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" ht="22.2" customHeight="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="15"/>
       <c r="F17" s="7" t="s">
         <v>28</v>
@@ -1697,11 +1769,11 @@
       <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="14.4">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
@@ -1745,11 +1817,11 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="14.4">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="20" t="s">
@@ -2259,6 +2331,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="G5:H5"/>
@@ -2267,13 +2346,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2299,12 +2371,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="51"/>
@@ -2337,1758 +2409,1926 @@
       <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="15.6">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="52"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="52"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="52"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="52"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="52"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="52"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="52"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="52"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="52"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="52"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="52"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="52"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="52"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="52"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="52"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="52"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="52"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="52"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="52"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="52"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="52"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="52"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="52"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="52"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="52"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="52"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="52"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="52"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="52"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="52"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="52"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="52"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="52"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="52"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="52"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="52"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="52"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="52"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="79"/>
-      <c r="C75" s="79"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="52"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="52"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="52"/>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="52"/>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="52"/>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="52"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="52"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="52"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="79"/>
-      <c r="C85" s="79"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="52"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="79"/>
-      <c r="C86" s="79"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="52"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="52"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="79"/>
-      <c r="C88" s="79"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="52"/>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="52"/>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="52"/>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="79"/>
-      <c r="C94" s="79"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="79"/>
-      <c r="C95" s="79"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="52"/>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="79"/>
-      <c r="C96" s="79"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="52"/>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="79"/>
-      <c r="C97" s="79"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="52"/>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="79"/>
-      <c r="C98" s="79"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="52"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="52"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="79"/>
-      <c r="C100" s="79"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="52"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="79"/>
-      <c r="C101" s="79"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="52"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
       <c r="D102" s="52"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="79"/>
-      <c r="C103" s="79"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="52"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="79"/>
-      <c r="C104" s="79"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
       <c r="D104" s="52"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="79"/>
-      <c r="C105" s="79"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="52"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="79"/>
-      <c r="C106" s="79"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="52"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="79"/>
-      <c r="C107" s="79"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="52"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="79"/>
-      <c r="C108" s="79"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="52"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="79"/>
-      <c r="C109" s="79"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="52"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="79"/>
-      <c r="C110" s="79"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="52"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="79"/>
-      <c r="C111" s="79"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="52"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="52"/>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="79"/>
-      <c r="C113" s="79"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="52"/>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="79"/>
-      <c r="C114" s="79"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="90"/>
       <c r="D114" s="52"/>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="79"/>
-      <c r="C115" s="79"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="90"/>
       <c r="D115" s="52"/>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="79"/>
-      <c r="C116" s="79"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="52"/>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="79"/>
-      <c r="C117" s="79"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="52"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="79"/>
-      <c r="C118" s="79"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="52"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="79"/>
-      <c r="C119" s="79"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="52"/>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="79"/>
-      <c r="C120" s="79"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="52"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="79"/>
-      <c r="C121" s="79"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="52"/>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="79"/>
-      <c r="C122" s="79"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="52"/>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="79"/>
-      <c r="C123" s="79"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="52"/>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="79"/>
-      <c r="C124" s="79"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="52"/>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="79"/>
-      <c r="C125" s="79"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="52"/>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="79"/>
-      <c r="C126" s="79"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="90"/>
       <c r="D126" s="52"/>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="79"/>
-      <c r="C127" s="79"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="52"/>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="79"/>
-      <c r="C128" s="79"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
       <c r="D128" s="52"/>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="79"/>
-      <c r="C129" s="79"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="52"/>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="79"/>
-      <c r="C130" s="79"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="90"/>
       <c r="D130" s="52"/>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="79"/>
-      <c r="C131" s="79"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="52"/>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="79"/>
-      <c r="C132" s="79"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="90"/>
       <c r="D132" s="52"/>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="79"/>
-      <c r="C133" s="79"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="90"/>
       <c r="D133" s="52"/>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="79"/>
-      <c r="C134" s="79"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
       <c r="D134" s="52"/>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="79"/>
-      <c r="C135" s="79"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="90"/>
       <c r="D135" s="52"/>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="79"/>
-      <c r="C136" s="79"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="90"/>
       <c r="D136" s="52"/>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="79"/>
-      <c r="C137" s="79"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="90"/>
       <c r="D137" s="52"/>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="79"/>
-      <c r="C138" s="79"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="90"/>
       <c r="D138" s="52"/>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="79"/>
-      <c r="C139" s="79"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="90"/>
       <c r="D139" s="52"/>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="79"/>
-      <c r="C140" s="79"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="90"/>
       <c r="D140" s="52"/>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="79"/>
-      <c r="C141" s="79"/>
+      <c r="B141" s="90"/>
+      <c r="C141" s="90"/>
       <c r="D141" s="52"/>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="79"/>
-      <c r="C142" s="79"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="90"/>
       <c r="D142" s="52"/>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="79"/>
-      <c r="C143" s="79"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="90"/>
       <c r="D143" s="52"/>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="79"/>
-      <c r="C144" s="79"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="90"/>
       <c r="D144" s="52"/>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="79"/>
-      <c r="C145" s="79"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="90"/>
       <c r="D145" s="52"/>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="79"/>
-      <c r="C146" s="79"/>
+      <c r="B146" s="90"/>
+      <c r="C146" s="90"/>
       <c r="D146" s="52"/>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="79"/>
-      <c r="C147" s="79"/>
+      <c r="B147" s="90"/>
+      <c r="C147" s="90"/>
       <c r="D147" s="52"/>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="79"/>
-      <c r="C148" s="79"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="90"/>
       <c r="D148" s="52"/>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="79"/>
-      <c r="C149" s="79"/>
+      <c r="B149" s="90"/>
+      <c r="C149" s="90"/>
       <c r="D149" s="52"/>
     </row>
     <row r="150" spans="2:4">
-      <c r="B150" s="79"/>
-      <c r="C150" s="79"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="90"/>
       <c r="D150" s="52"/>
     </row>
     <row r="151" spans="2:4">
-      <c r="B151" s="79"/>
-      <c r="C151" s="79"/>
+      <c r="B151" s="90"/>
+      <c r="C151" s="90"/>
       <c r="D151" s="52"/>
     </row>
     <row r="152" spans="2:4">
-      <c r="B152" s="79"/>
-      <c r="C152" s="79"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="90"/>
       <c r="D152" s="52"/>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="79"/>
-      <c r="C153" s="79"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="90"/>
       <c r="D153" s="52"/>
     </row>
     <row r="154" spans="2:4">
-      <c r="B154" s="79"/>
-      <c r="C154" s="79"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="90"/>
       <c r="D154" s="52"/>
     </row>
     <row r="155" spans="2:4">
-      <c r="B155" s="79"/>
-      <c r="C155" s="79"/>
+      <c r="B155" s="90"/>
+      <c r="C155" s="90"/>
       <c r="D155" s="52"/>
     </row>
     <row r="156" spans="2:4">
-      <c r="B156" s="79"/>
-      <c r="C156" s="79"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="90"/>
       <c r="D156" s="52"/>
     </row>
     <row r="157" spans="2:4">
-      <c r="B157" s="79"/>
-      <c r="C157" s="79"/>
+      <c r="B157" s="90"/>
+      <c r="C157" s="90"/>
       <c r="D157" s="52"/>
     </row>
     <row r="158" spans="2:4">
-      <c r="B158" s="79"/>
-      <c r="C158" s="79"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="90"/>
       <c r="D158" s="52"/>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="79"/>
-      <c r="C159" s="79"/>
+      <c r="B159" s="90"/>
+      <c r="C159" s="90"/>
       <c r="D159" s="52"/>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="79"/>
-      <c r="C160" s="79"/>
+      <c r="B160" s="90"/>
+      <c r="C160" s="90"/>
       <c r="D160" s="52"/>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="79"/>
-      <c r="C161" s="79"/>
+      <c r="B161" s="90"/>
+      <c r="C161" s="90"/>
       <c r="D161" s="52"/>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="79"/>
-      <c r="C162" s="79"/>
+      <c r="B162" s="90"/>
+      <c r="C162" s="90"/>
       <c r="D162" s="52"/>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="79"/>
-      <c r="C163" s="79"/>
+      <c r="B163" s="90"/>
+      <c r="C163" s="90"/>
       <c r="D163" s="52"/>
     </row>
     <row r="164" spans="2:4">
-      <c r="B164" s="79"/>
-      <c r="C164" s="79"/>
+      <c r="B164" s="90"/>
+      <c r="C164" s="90"/>
       <c r="D164" s="52"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="79"/>
-      <c r="C165" s="79"/>
+      <c r="B165" s="90"/>
+      <c r="C165" s="90"/>
       <c r="D165" s="52"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="79"/>
-      <c r="C166" s="79"/>
+      <c r="B166" s="90"/>
+      <c r="C166" s="90"/>
       <c r="D166" s="52"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="79"/>
-      <c r="C167" s="79"/>
+      <c r="B167" s="90"/>
+      <c r="C167" s="90"/>
       <c r="D167" s="52"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="79"/>
-      <c r="C168" s="79"/>
+      <c r="B168" s="90"/>
+      <c r="C168" s="90"/>
       <c r="D168" s="52"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="79"/>
-      <c r="C169" s="79"/>
+      <c r="B169" s="90"/>
+      <c r="C169" s="90"/>
       <c r="D169" s="52"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="79"/>
-      <c r="C170" s="79"/>
+      <c r="B170" s="90"/>
+      <c r="C170" s="90"/>
       <c r="D170" s="52"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="79"/>
-      <c r="C171" s="79"/>
+      <c r="B171" s="90"/>
+      <c r="C171" s="90"/>
       <c r="D171" s="52"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="79"/>
-      <c r="C172" s="79"/>
+      <c r="B172" s="90"/>
+      <c r="C172" s="90"/>
       <c r="D172" s="52"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="79"/>
-      <c r="C173" s="79"/>
+      <c r="B173" s="90"/>
+      <c r="C173" s="90"/>
       <c r="D173" s="52"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="79"/>
-      <c r="C174" s="79"/>
+      <c r="B174" s="90"/>
+      <c r="C174" s="90"/>
       <c r="D174" s="52"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="79"/>
-      <c r="C175" s="79"/>
+      <c r="B175" s="90"/>
+      <c r="C175" s="90"/>
       <c r="D175" s="52"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="79"/>
-      <c r="C176" s="79"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="90"/>
       <c r="D176" s="52"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="79"/>
-      <c r="C177" s="79"/>
+      <c r="B177" s="90"/>
+      <c r="C177" s="90"/>
       <c r="D177" s="52"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="79"/>
-      <c r="C178" s="79"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="90"/>
       <c r="D178" s="52"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="79"/>
-      <c r="C179" s="79"/>
+      <c r="B179" s="90"/>
+      <c r="C179" s="90"/>
       <c r="D179" s="52"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="79"/>
-      <c r="C180" s="79"/>
+      <c r="B180" s="90"/>
+      <c r="C180" s="90"/>
       <c r="D180" s="52"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="79"/>
-      <c r="C181" s="79"/>
+      <c r="B181" s="90"/>
+      <c r="C181" s="90"/>
       <c r="D181" s="52"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="79"/>
-      <c r="C182" s="79"/>
+      <c r="B182" s="90"/>
+      <c r="C182" s="90"/>
       <c r="D182" s="52"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="79"/>
-      <c r="C183" s="79"/>
+      <c r="B183" s="90"/>
+      <c r="C183" s="90"/>
       <c r="D183" s="52"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="79"/>
-      <c r="C184" s="79"/>
+      <c r="B184" s="90"/>
+      <c r="C184" s="90"/>
       <c r="D184" s="52"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="79"/>
-      <c r="C185" s="79"/>
+      <c r="B185" s="90"/>
+      <c r="C185" s="90"/>
       <c r="D185" s="52"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="79"/>
-      <c r="C186" s="79"/>
+      <c r="B186" s="90"/>
+      <c r="C186" s="90"/>
       <c r="D186" s="52"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="79"/>
-      <c r="C187" s="79"/>
+      <c r="B187" s="90"/>
+      <c r="C187" s="90"/>
       <c r="D187" s="52"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="79"/>
-      <c r="C188" s="79"/>
+      <c r="B188" s="90"/>
+      <c r="C188" s="90"/>
       <c r="D188" s="52"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="79"/>
-      <c r="C189" s="79"/>
+      <c r="B189" s="90"/>
+      <c r="C189" s="90"/>
       <c r="D189" s="52"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="79"/>
-      <c r="C190" s="79"/>
+      <c r="B190" s="90"/>
+      <c r="C190" s="90"/>
       <c r="D190" s="52"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="79"/>
-      <c r="C191" s="79"/>
+      <c r="B191" s="90"/>
+      <c r="C191" s="90"/>
       <c r="D191" s="52"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="79"/>
-      <c r="C192" s="79"/>
+      <c r="B192" s="90"/>
+      <c r="C192" s="90"/>
       <c r="D192" s="52"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="79"/>
-      <c r="C193" s="79"/>
+      <c r="B193" s="90"/>
+      <c r="C193" s="90"/>
       <c r="D193" s="52"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="79"/>
-      <c r="C194" s="79"/>
+      <c r="B194" s="90"/>
+      <c r="C194" s="90"/>
       <c r="D194" s="52"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="79"/>
-      <c r="C195" s="79"/>
+      <c r="B195" s="90"/>
+      <c r="C195" s="90"/>
       <c r="D195" s="52"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="79"/>
-      <c r="C196" s="79"/>
+      <c r="B196" s="90"/>
+      <c r="C196" s="90"/>
       <c r="D196" s="52"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="79"/>
-      <c r="C197" s="79"/>
+      <c r="B197" s="90"/>
+      <c r="C197" s="90"/>
       <c r="D197" s="52"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="79"/>
-      <c r="C198" s="79"/>
+      <c r="B198" s="90"/>
+      <c r="C198" s="90"/>
       <c r="D198" s="52"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="79"/>
-      <c r="C199" s="79"/>
+      <c r="B199" s="90"/>
+      <c r="C199" s="90"/>
       <c r="D199" s="52"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="79"/>
-      <c r="C200" s="79"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="90"/>
       <c r="D200" s="52"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="79"/>
-      <c r="C201" s="79"/>
+      <c r="B201" s="90"/>
+      <c r="C201" s="90"/>
       <c r="D201" s="52"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="79"/>
-      <c r="C202" s="79"/>
+      <c r="B202" s="90"/>
+      <c r="C202" s="90"/>
       <c r="D202" s="52"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="79"/>
-      <c r="C203" s="79"/>
+      <c r="B203" s="90"/>
+      <c r="C203" s="90"/>
       <c r="D203" s="52"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="79"/>
-      <c r="C204" s="79"/>
+      <c r="B204" s="90"/>
+      <c r="C204" s="90"/>
       <c r="D204" s="52"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="79"/>
-      <c r="C205" s="79"/>
+      <c r="B205" s="90"/>
+      <c r="C205" s="90"/>
       <c r="D205" s="52"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="79"/>
-      <c r="C206" s="79"/>
+      <c r="B206" s="90"/>
+      <c r="C206" s="90"/>
       <c r="D206" s="52"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="79"/>
-      <c r="C207" s="79"/>
+      <c r="B207" s="90"/>
+      <c r="C207" s="90"/>
       <c r="D207" s="52"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="79"/>
-      <c r="C208" s="79"/>
+      <c r="B208" s="90"/>
+      <c r="C208" s="90"/>
       <c r="D208" s="52"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="79"/>
-      <c r="C209" s="79"/>
+      <c r="B209" s="90"/>
+      <c r="C209" s="90"/>
       <c r="D209" s="52"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="79"/>
-      <c r="C210" s="79"/>
+      <c r="B210" s="90"/>
+      <c r="C210" s="90"/>
       <c r="D210" s="52"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="79"/>
-      <c r="C211" s="79"/>
+      <c r="B211" s="90"/>
+      <c r="C211" s="90"/>
       <c r="D211" s="52"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="79"/>
-      <c r="C212" s="79"/>
+      <c r="B212" s="90"/>
+      <c r="C212" s="90"/>
       <c r="D212" s="52"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="79"/>
-      <c r="C213" s="79"/>
+      <c r="B213" s="90"/>
+      <c r="C213" s="90"/>
       <c r="D213" s="52"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="79"/>
-      <c r="C214" s="79"/>
+      <c r="B214" s="90"/>
+      <c r="C214" s="90"/>
       <c r="D214" s="52"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="79"/>
-      <c r="C215" s="79"/>
+      <c r="B215" s="90"/>
+      <c r="C215" s="90"/>
       <c r="D215" s="52"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="79"/>
-      <c r="C216" s="79"/>
+      <c r="B216" s="90"/>
+      <c r="C216" s="90"/>
       <c r="D216" s="52"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="79"/>
-      <c r="C217" s="79"/>
+      <c r="B217" s="90"/>
+      <c r="C217" s="90"/>
       <c r="D217" s="52"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="79"/>
-      <c r="C218" s="79"/>
+      <c r="B218" s="90"/>
+      <c r="C218" s="90"/>
       <c r="D218" s="52"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="79"/>
-      <c r="C219" s="79"/>
+      <c r="B219" s="90"/>
+      <c r="C219" s="90"/>
       <c r="D219" s="52"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="79"/>
-      <c r="C220" s="79"/>
+      <c r="B220" s="90"/>
+      <c r="C220" s="90"/>
       <c r="D220" s="52"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="79"/>
-      <c r="C221" s="79"/>
+      <c r="B221" s="90"/>
+      <c r="C221" s="90"/>
       <c r="D221" s="52"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="79"/>
-      <c r="C222" s="79"/>
+      <c r="B222" s="90"/>
+      <c r="C222" s="90"/>
       <c r="D222" s="52"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="79"/>
-      <c r="C223" s="79"/>
+      <c r="B223" s="90"/>
+      <c r="C223" s="90"/>
       <c r="D223" s="52"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="79"/>
-      <c r="C224" s="79"/>
+      <c r="B224" s="90"/>
+      <c r="C224" s="90"/>
       <c r="D224" s="52"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="79"/>
-      <c r="C225" s="79"/>
+      <c r="B225" s="90"/>
+      <c r="C225" s="90"/>
       <c r="D225" s="52"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="79"/>
-      <c r="C226" s="79"/>
+      <c r="B226" s="90"/>
+      <c r="C226" s="90"/>
       <c r="D226" s="52"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="79"/>
-      <c r="C227" s="79"/>
+      <c r="B227" s="90"/>
+      <c r="C227" s="90"/>
       <c r="D227" s="52"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="79"/>
-      <c r="C228" s="79"/>
+      <c r="B228" s="90"/>
+      <c r="C228" s="90"/>
       <c r="D228" s="52"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="79"/>
-      <c r="C229" s="79"/>
+      <c r="B229" s="90"/>
+      <c r="C229" s="90"/>
       <c r="D229" s="52"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="79"/>
-      <c r="C230" s="79"/>
+      <c r="B230" s="90"/>
+      <c r="C230" s="90"/>
       <c r="D230" s="52"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="79"/>
-      <c r="C231" s="79"/>
+      <c r="B231" s="90"/>
+      <c r="C231" s="90"/>
       <c r="D231" s="52"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="79"/>
-      <c r="C232" s="79"/>
+      <c r="B232" s="90"/>
+      <c r="C232" s="90"/>
       <c r="D232" s="52"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="79"/>
-      <c r="C233" s="79"/>
+      <c r="B233" s="90"/>
+      <c r="C233" s="90"/>
       <c r="D233" s="52"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="79"/>
-      <c r="C234" s="79"/>
+      <c r="B234" s="90"/>
+      <c r="C234" s="90"/>
       <c r="D234" s="52"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="79"/>
-      <c r="C235" s="79"/>
+      <c r="B235" s="90"/>
+      <c r="C235" s="90"/>
       <c r="D235" s="52"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="79"/>
-      <c r="C236" s="79"/>
+      <c r="B236" s="90"/>
+      <c r="C236" s="90"/>
       <c r="D236" s="52"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="79"/>
-      <c r="C237" s="79"/>
+      <c r="B237" s="90"/>
+      <c r="C237" s="90"/>
       <c r="D237" s="52"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="79"/>
-      <c r="C238" s="79"/>
+      <c r="B238" s="90"/>
+      <c r="C238" s="90"/>
       <c r="D238" s="52"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="79"/>
-      <c r="C239" s="79"/>
+      <c r="B239" s="90"/>
+      <c r="C239" s="90"/>
       <c r="D239" s="52"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="79"/>
-      <c r="C240" s="79"/>
+      <c r="B240" s="90"/>
+      <c r="C240" s="90"/>
       <c r="D240" s="52"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="79"/>
-      <c r="C241" s="79"/>
+      <c r="B241" s="90"/>
+      <c r="C241" s="90"/>
       <c r="D241" s="52"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="79"/>
-      <c r="C242" s="79"/>
+      <c r="B242" s="90"/>
+      <c r="C242" s="90"/>
       <c r="D242" s="52"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="79"/>
-      <c r="C243" s="79"/>
+      <c r="B243" s="90"/>
+      <c r="C243" s="90"/>
       <c r="D243" s="52"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="79"/>
-      <c r="C244" s="79"/>
+      <c r="B244" s="90"/>
+      <c r="C244" s="90"/>
       <c r="D244" s="52"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
+      <c r="B245" s="90"/>
+      <c r="C245" s="90"/>
       <c r="D245" s="52"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="79"/>
-      <c r="C246" s="79"/>
+      <c r="B246" s="90"/>
+      <c r="C246" s="90"/>
       <c r="D246" s="52"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="79"/>
-      <c r="C247" s="79"/>
+      <c r="B247" s="90"/>
+      <c r="C247" s="90"/>
       <c r="D247" s="52"/>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="79"/>
-      <c r="C248" s="79"/>
+      <c r="B248" s="90"/>
+      <c r="C248" s="90"/>
       <c r="D248" s="52"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="79"/>
-      <c r="C249" s="79"/>
+      <c r="B249" s="90"/>
+      <c r="C249" s="90"/>
       <c r="D249" s="52"/>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="79"/>
-      <c r="C250" s="79"/>
+      <c r="B250" s="90"/>
+      <c r="C250" s="90"/>
       <c r="D250" s="52"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="79"/>
-      <c r="C251" s="79"/>
+      <c r="B251" s="90"/>
+      <c r="C251" s="90"/>
       <c r="D251" s="52"/>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="79"/>
-      <c r="C252" s="79"/>
+      <c r="B252" s="90"/>
+      <c r="C252" s="90"/>
       <c r="D252" s="52"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="79"/>
-      <c r="C253" s="79"/>
+      <c r="B253" s="90"/>
+      <c r="C253" s="90"/>
       <c r="D253" s="52"/>
     </row>
     <row r="254" spans="2:4">
-      <c r="B254" s="79"/>
-      <c r="C254" s="79"/>
+      <c r="B254" s="90"/>
+      <c r="C254" s="90"/>
       <c r="D254" s="52"/>
     </row>
     <row r="255" spans="2:4">
-      <c r="B255" s="79"/>
-      <c r="C255" s="79"/>
+      <c r="B255" s="90"/>
+      <c r="C255" s="90"/>
       <c r="D255" s="52"/>
     </row>
     <row r="256" spans="2:4">
-      <c r="B256" s="79"/>
-      <c r="C256" s="79"/>
+      <c r="B256" s="90"/>
+      <c r="C256" s="90"/>
       <c r="D256" s="52"/>
     </row>
     <row r="257" spans="2:4">
-      <c r="B257" s="79"/>
-      <c r="C257" s="79"/>
+      <c r="B257" s="90"/>
+      <c r="C257" s="90"/>
       <c r="D257" s="52"/>
     </row>
     <row r="258" spans="2:4">
-      <c r="B258" s="79"/>
-      <c r="C258" s="79"/>
+      <c r="B258" s="90"/>
+      <c r="C258" s="90"/>
       <c r="D258" s="52"/>
     </row>
     <row r="259" spans="2:4">
-      <c r="B259" s="79"/>
-      <c r="C259" s="79"/>
+      <c r="B259" s="90"/>
+      <c r="C259" s="90"/>
       <c r="D259" s="52"/>
     </row>
     <row r="260" spans="2:4">
-      <c r="B260" s="79"/>
-      <c r="C260" s="79"/>
+      <c r="B260" s="90"/>
+      <c r="C260" s="90"/>
       <c r="D260" s="52"/>
     </row>
     <row r="261" spans="2:4">
-      <c r="B261" s="79"/>
-      <c r="C261" s="79"/>
+      <c r="B261" s="90"/>
+      <c r="C261" s="90"/>
       <c r="D261" s="52"/>
     </row>
     <row r="262" spans="2:4">
-      <c r="B262" s="79"/>
-      <c r="C262" s="79"/>
+      <c r="B262" s="90"/>
+      <c r="C262" s="90"/>
       <c r="D262" s="52"/>
     </row>
     <row r="263" spans="2:4">
-      <c r="B263" s="79"/>
-      <c r="C263" s="79"/>
+      <c r="B263" s="90"/>
+      <c r="C263" s="90"/>
       <c r="D263" s="52"/>
     </row>
     <row r="264" spans="2:4">
-      <c r="B264" s="79"/>
-      <c r="C264" s="79"/>
+      <c r="B264" s="90"/>
+      <c r="C264" s="90"/>
       <c r="D264" s="52"/>
     </row>
     <row r="265" spans="2:4">
-      <c r="B265" s="79"/>
-      <c r="C265" s="79"/>
+      <c r="B265" s="90"/>
+      <c r="C265" s="90"/>
       <c r="D265" s="52"/>
     </row>
     <row r="266" spans="2:4">
-      <c r="B266" s="79"/>
-      <c r="C266" s="79"/>
+      <c r="B266" s="90"/>
+      <c r="C266" s="90"/>
       <c r="D266" s="52"/>
     </row>
     <row r="267" spans="2:4">
-      <c r="B267" s="79"/>
-      <c r="C267" s="79"/>
+      <c r="B267" s="90"/>
+      <c r="C267" s="90"/>
       <c r="D267" s="52"/>
     </row>
     <row r="268" spans="2:4">
-      <c r="B268" s="79"/>
-      <c r="C268" s="79"/>
+      <c r="B268" s="90"/>
+      <c r="C268" s="90"/>
       <c r="D268" s="52"/>
     </row>
     <row r="269" spans="2:4">
-      <c r="B269" s="79"/>
-      <c r="C269" s="79"/>
+      <c r="B269" s="90"/>
+      <c r="C269" s="90"/>
       <c r="D269" s="52"/>
     </row>
     <row r="270" spans="2:4">
-      <c r="B270" s="79"/>
-      <c r="C270" s="79"/>
+      <c r="B270" s="90"/>
+      <c r="C270" s="90"/>
       <c r="D270" s="52"/>
     </row>
     <row r="271" spans="2:4">
-      <c r="B271" s="79"/>
-      <c r="C271" s="79"/>
+      <c r="B271" s="90"/>
+      <c r="C271" s="90"/>
       <c r="D271" s="52"/>
     </row>
     <row r="272" spans="2:4">
-      <c r="B272" s="79"/>
-      <c r="C272" s="79"/>
+      <c r="B272" s="90"/>
+      <c r="C272" s="90"/>
       <c r="D272" s="52"/>
     </row>
     <row r="273" spans="2:4">
-      <c r="B273" s="79"/>
-      <c r="C273" s="79"/>
+      <c r="B273" s="90"/>
+      <c r="C273" s="90"/>
       <c r="D273" s="52"/>
     </row>
     <row r="274" spans="2:4">
-      <c r="B274" s="79"/>
-      <c r="C274" s="79"/>
+      <c r="B274" s="90"/>
+      <c r="C274" s="90"/>
       <c r="D274" s="52"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="79"/>
-      <c r="C275" s="79"/>
+      <c r="B275" s="90"/>
+      <c r="C275" s="90"/>
       <c r="D275" s="52"/>
     </row>
     <row r="276" spans="2:4">
-      <c r="B276" s="79"/>
-      <c r="C276" s="79"/>
+      <c r="B276" s="90"/>
+      <c r="C276" s="90"/>
       <c r="D276" s="52"/>
     </row>
     <row r="277" spans="2:4">
-      <c r="B277" s="79"/>
-      <c r="C277" s="79"/>
+      <c r="B277" s="90"/>
+      <c r="C277" s="90"/>
       <c r="D277" s="52"/>
     </row>
     <row r="278" spans="2:4">
-      <c r="B278" s="79"/>
-      <c r="C278" s="79"/>
+      <c r="B278" s="90"/>
+      <c r="C278" s="90"/>
       <c r="D278" s="52"/>
     </row>
     <row r="279" spans="2:4">
-      <c r="B279" s="79"/>
-      <c r="C279" s="79"/>
+      <c r="B279" s="90"/>
+      <c r="C279" s="90"/>
       <c r="D279" s="52"/>
     </row>
     <row r="280" spans="2:4">
-      <c r="B280" s="79"/>
-      <c r="C280" s="79"/>
+      <c r="B280" s="90"/>
+      <c r="C280" s="90"/>
       <c r="D280" s="52"/>
     </row>
     <row r="281" spans="2:4">
-      <c r="B281" s="79"/>
-      <c r="C281" s="79"/>
+      <c r="B281" s="90"/>
+      <c r="C281" s="90"/>
       <c r="D281" s="52"/>
     </row>
     <row r="282" spans="2:4">
-      <c r="B282" s="79"/>
-      <c r="C282" s="79"/>
+      <c r="B282" s="90"/>
+      <c r="C282" s="90"/>
       <c r="D282" s="52"/>
     </row>
     <row r="283" spans="2:4">
-      <c r="B283" s="79"/>
-      <c r="C283" s="79"/>
+      <c r="B283" s="90"/>
+      <c r="C283" s="90"/>
       <c r="D283" s="52"/>
     </row>
     <row r="284" spans="2:4">
-      <c r="B284" s="79"/>
-      <c r="C284" s="79"/>
+      <c r="B284" s="90"/>
+      <c r="C284" s="90"/>
       <c r="D284" s="52"/>
     </row>
     <row r="285" spans="2:4">
-      <c r="B285" s="79"/>
-      <c r="C285" s="79"/>
+      <c r="B285" s="90"/>
+      <c r="C285" s="90"/>
       <c r="D285" s="52"/>
     </row>
     <row r="286" spans="2:4">
-      <c r="B286" s="79"/>
-      <c r="C286" s="79"/>
+      <c r="B286" s="90"/>
+      <c r="C286" s="90"/>
       <c r="D286" s="52"/>
     </row>
     <row r="287" spans="2:4">
-      <c r="B287" s="79"/>
-      <c r="C287" s="79"/>
+      <c r="B287" s="90"/>
+      <c r="C287" s="90"/>
       <c r="D287" s="52"/>
     </row>
     <row r="288" spans="2:4">
-      <c r="B288" s="79"/>
-      <c r="C288" s="79"/>
+      <c r="B288" s="90"/>
+      <c r="C288" s="90"/>
       <c r="D288" s="52"/>
     </row>
     <row r="289" spans="2:4">
-      <c r="B289" s="79"/>
-      <c r="C289" s="79"/>
+      <c r="B289" s="90"/>
+      <c r="C289" s="90"/>
       <c r="D289" s="52"/>
     </row>
     <row r="290" spans="2:4">
-      <c r="B290" s="79"/>
-      <c r="C290" s="79"/>
+      <c r="B290" s="90"/>
+      <c r="C290" s="90"/>
       <c r="D290" s="52"/>
     </row>
     <row r="291" spans="2:4">
-      <c r="B291" s="79"/>
-      <c r="C291" s="79"/>
+      <c r="B291" s="90"/>
+      <c r="C291" s="90"/>
       <c r="D291" s="52"/>
     </row>
     <row r="292" spans="2:4">
-      <c r="B292" s="79"/>
-      <c r="C292" s="79"/>
+      <c r="B292" s="90"/>
+      <c r="C292" s="90"/>
       <c r="D292" s="52"/>
     </row>
     <row r="293" spans="2:4">
-      <c r="B293" s="79"/>
-      <c r="C293" s="79"/>
+      <c r="B293" s="90"/>
+      <c r="C293" s="90"/>
       <c r="D293" s="52"/>
     </row>
     <row r="294" spans="2:4">
-      <c r="B294" s="79"/>
-      <c r="C294" s="79"/>
+      <c r="B294" s="90"/>
+      <c r="C294" s="90"/>
       <c r="D294" s="52"/>
     </row>
     <row r="295" spans="2:4">
-      <c r="B295" s="79"/>
-      <c r="C295" s="79"/>
+      <c r="B295" s="90"/>
+      <c r="C295" s="90"/>
       <c r="D295" s="52"/>
     </row>
     <row r="296" spans="2:4">
-      <c r="B296" s="79"/>
-      <c r="C296" s="79"/>
+      <c r="B296" s="90"/>
+      <c r="C296" s="90"/>
       <c r="D296" s="52"/>
     </row>
     <row r="297" spans="2:4">
-      <c r="B297" s="79"/>
-      <c r="C297" s="79"/>
+      <c r="B297" s="90"/>
+      <c r="C297" s="90"/>
       <c r="D297" s="52"/>
     </row>
     <row r="298" spans="2:4">
-      <c r="B298" s="79"/>
-      <c r="C298" s="79"/>
+      <c r="B298" s="90"/>
+      <c r="C298" s="90"/>
       <c r="D298" s="52"/>
     </row>
     <row r="299" spans="2:4">
-      <c r="B299" s="79"/>
-      <c r="C299" s="79"/>
+      <c r="B299" s="90"/>
+      <c r="C299" s="90"/>
       <c r="D299" s="52"/>
     </row>
     <row r="300" spans="2:4">
-      <c r="B300" s="79"/>
-      <c r="C300" s="79"/>
+      <c r="B300" s="90"/>
+      <c r="C300" s="90"/>
       <c r="D300" s="52"/>
     </row>
     <row r="301" spans="2:4">
-      <c r="B301" s="79"/>
-      <c r="C301" s="79"/>
+      <c r="B301" s="90"/>
+      <c r="C301" s="90"/>
       <c r="D301" s="52"/>
     </row>
     <row r="302" spans="2:4">
-      <c r="B302" s="79"/>
-      <c r="C302" s="79"/>
+      <c r="B302" s="90"/>
+      <c r="C302" s="90"/>
       <c r="D302" s="52"/>
     </row>
     <row r="303" spans="2:4">
-      <c r="B303" s="79"/>
-      <c r="C303" s="79"/>
+      <c r="B303" s="90"/>
+      <c r="C303" s="90"/>
       <c r="D303" s="52"/>
     </row>
     <row r="304" spans="2:4">
-      <c r="B304" s="79"/>
-      <c r="C304" s="79"/>
+      <c r="B304" s="90"/>
+      <c r="C304" s="90"/>
       <c r="D304" s="52"/>
     </row>
     <row r="305" spans="2:4">
-      <c r="B305" s="79"/>
-      <c r="C305" s="79"/>
+      <c r="B305" s="90"/>
+      <c r="C305" s="90"/>
       <c r="D305" s="52"/>
     </row>
     <row r="306" spans="2:4">
-      <c r="B306" s="79"/>
-      <c r="C306" s="79"/>
+      <c r="B306" s="90"/>
+      <c r="C306" s="90"/>
       <c r="D306" s="52"/>
     </row>
     <row r="307" spans="2:4">
-      <c r="B307" s="79"/>
-      <c r="C307" s="79"/>
+      <c r="B307" s="90"/>
+      <c r="C307" s="90"/>
       <c r="D307" s="52"/>
     </row>
     <row r="308" spans="2:4">
-      <c r="B308" s="79"/>
-      <c r="C308" s="79"/>
+      <c r="B308" s="90"/>
+      <c r="C308" s="90"/>
       <c r="D308" s="52"/>
     </row>
     <row r="309" spans="2:4">
-      <c r="B309" s="79"/>
-      <c r="C309" s="79"/>
+      <c r="B309" s="90"/>
+      <c r="C309" s="90"/>
       <c r="D309" s="52"/>
     </row>
     <row r="310" spans="2:4">
-      <c r="B310" s="79"/>
-      <c r="C310" s="79"/>
+      <c r="B310" s="90"/>
+      <c r="C310" s="90"/>
       <c r="D310" s="52"/>
     </row>
     <row r="311" spans="2:4">
-      <c r="B311" s="79"/>
-      <c r="C311" s="79"/>
+      <c r="B311" s="90"/>
+      <c r="C311" s="90"/>
       <c r="D311" s="52"/>
     </row>
     <row r="312" spans="2:4">
-      <c r="B312" s="79"/>
-      <c r="C312" s="79"/>
+      <c r="B312" s="90"/>
+      <c r="C312" s="90"/>
       <c r="D312" s="52"/>
     </row>
     <row r="313" spans="2:4">
-      <c r="B313" s="79"/>
-      <c r="C313" s="79"/>
+      <c r="B313" s="90"/>
+      <c r="C313" s="90"/>
       <c r="D313" s="52"/>
     </row>
     <row r="314" spans="2:4">
-      <c r="B314" s="79"/>
-      <c r="C314" s="79"/>
+      <c r="B314" s="90"/>
+      <c r="C314" s="90"/>
       <c r="D314" s="52"/>
     </row>
     <row r="315" spans="2:4">
-      <c r="B315" s="79"/>
-      <c r="C315" s="79"/>
+      <c r="B315" s="90"/>
+      <c r="C315" s="90"/>
       <c r="D315" s="52"/>
     </row>
     <row r="316" spans="2:4">
-      <c r="B316" s="79"/>
-      <c r="C316" s="79"/>
+      <c r="B316" s="90"/>
+      <c r="C316" s="90"/>
       <c r="D316" s="52"/>
     </row>
     <row r="317" spans="2:4">
-      <c r="B317" s="79"/>
-      <c r="C317" s="79"/>
+      <c r="B317" s="90"/>
+      <c r="C317" s="90"/>
       <c r="D317" s="52"/>
     </row>
     <row r="318" spans="2:4">
-      <c r="B318" s="79"/>
-      <c r="C318" s="79"/>
+      <c r="B318" s="90"/>
+      <c r="C318" s="90"/>
       <c r="D318" s="52"/>
     </row>
     <row r="319" spans="2:4">
-      <c r="B319" s="79"/>
-      <c r="C319" s="79"/>
+      <c r="B319" s="90"/>
+      <c r="C319" s="90"/>
       <c r="D319" s="52"/>
     </row>
     <row r="320" spans="2:4">
-      <c r="B320" s="79"/>
-      <c r="C320" s="79"/>
+      <c r="B320" s="90"/>
+      <c r="C320" s="90"/>
       <c r="D320" s="52"/>
     </row>
     <row r="321" spans="2:4">
-      <c r="B321" s="79"/>
-      <c r="C321" s="79"/>
+      <c r="B321" s="90"/>
+      <c r="C321" s="90"/>
       <c r="D321" s="52"/>
     </row>
     <row r="322" spans="2:4">
-      <c r="B322" s="79"/>
-      <c r="C322" s="79"/>
+      <c r="B322" s="90"/>
+      <c r="C322" s="90"/>
       <c r="D322" s="52"/>
     </row>
     <row r="323" spans="2:4">
-      <c r="B323" s="79"/>
-      <c r="C323" s="79"/>
+      <c r="B323" s="90"/>
+      <c r="C323" s="90"/>
       <c r="D323" s="52"/>
     </row>
     <row r="324" spans="2:4">
-      <c r="B324" s="79"/>
-      <c r="C324" s="79"/>
+      <c r="B324" s="90"/>
+      <c r="C324" s="90"/>
       <c r="D324" s="52"/>
     </row>
     <row r="325" spans="2:4">
-      <c r="B325" s="79"/>
-      <c r="C325" s="79"/>
+      <c r="B325" s="90"/>
+      <c r="C325" s="90"/>
       <c r="D325" s="52"/>
     </row>
     <row r="326" spans="2:4">
-      <c r="B326" s="79"/>
-      <c r="C326" s="79"/>
+      <c r="B326" s="90"/>
+      <c r="C326" s="90"/>
       <c r="D326" s="52"/>
     </row>
     <row r="327" spans="2:4">
-      <c r="B327" s="79"/>
-      <c r="C327" s="79"/>
+      <c r="B327" s="90"/>
+      <c r="C327" s="90"/>
       <c r="D327" s="52"/>
     </row>
     <row r="328" spans="2:4">
-      <c r="B328" s="79"/>
-      <c r="C328" s="79"/>
-      <c r="D328" s="79"/>
+      <c r="B328" s="90"/>
+      <c r="C328" s="90"/>
+      <c r="D328" s="90"/>
     </row>
     <row r="329" spans="2:4">
-      <c r="B329" s="79"/>
-      <c r="C329" s="79"/>
-      <c r="D329" s="79"/>
+      <c r="B329" s="90"/>
+      <c r="C329" s="90"/>
+      <c r="D329" s="90"/>
     </row>
     <row r="330" spans="2:4">
-      <c r="B330" s="79"/>
-      <c r="C330" s="79"/>
-      <c r="D330" s="79"/>
+      <c r="B330" s="90"/>
+      <c r="C330" s="90"/>
+      <c r="D330" s="90"/>
     </row>
     <row r="331" spans="2:4">
-      <c r="B331" s="79"/>
-      <c r="C331" s="79"/>
-      <c r="D331" s="79"/>
+      <c r="B331" s="90"/>
+      <c r="C331" s="90"/>
+      <c r="D331" s="90"/>
     </row>
     <row r="332" spans="2:4">
-      <c r="B332" s="79"/>
-      <c r="C332" s="79"/>
-      <c r="D332" s="79"/>
+      <c r="B332" s="90"/>
+      <c r="C332" s="90"/>
+      <c r="D332" s="90"/>
     </row>
     <row r="333" spans="2:4">
-      <c r="B333" s="79"/>
-      <c r="C333" s="79"/>
-      <c r="D333" s="79"/>
+      <c r="B333" s="90"/>
+      <c r="C333" s="90"/>
+      <c r="D333" s="90"/>
     </row>
     <row r="334" spans="2:4">
-      <c r="B334" s="79"/>
-      <c r="C334" s="79"/>
-      <c r="D334" s="79"/>
+      <c r="B334" s="90"/>
+      <c r="C334" s="90"/>
+      <c r="D334" s="90"/>
     </row>
     <row r="335" spans="2:4">
-      <c r="B335" s="79"/>
-      <c r="C335" s="79"/>
-      <c r="D335" s="79"/>
+      <c r="B335" s="90"/>
+      <c r="C335" s="90"/>
+      <c r="D335" s="90"/>
     </row>
     <row r="336" spans="2:4">
-      <c r="B336" s="79"/>
-      <c r="C336" s="79"/>
-      <c r="D336" s="79"/>
+      <c r="B336" s="90"/>
+      <c r="C336" s="90"/>
+      <c r="D336" s="90"/>
     </row>
     <row r="337" spans="2:4">
-      <c r="B337" s="79"/>
-      <c r="C337" s="79"/>
-      <c r="D337" s="79"/>
+      <c r="B337" s="90"/>
+      <c r="C337" s="90"/>
+      <c r="D337" s="90"/>
     </row>
     <row r="338" spans="2:4">
-      <c r="B338" s="79"/>
-      <c r="C338" s="79"/>
-      <c r="D338" s="79"/>
+      <c r="B338" s="90"/>
+      <c r="C338" s="90"/>
+      <c r="D338" s="90"/>
     </row>
     <row r="339" spans="2:4">
-      <c r="B339" s="79"/>
-      <c r="C339" s="79"/>
-      <c r="D339" s="79"/>
+      <c r="B339" s="90"/>
+      <c r="C339" s="90"/>
+      <c r="D339" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="335">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B336:D336"/>
-    <mergeCell ref="B337:D337"/>
-    <mergeCell ref="B338:D338"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="B330:D330"/>
-    <mergeCell ref="B331:D331"/>
-    <mergeCell ref="B332:D332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
     <mergeCell ref="B315:C315"/>
     <mergeCell ref="B316:C316"/>
     <mergeCell ref="B317:C317"/>
@@ -4113,222 +4353,55 @@
     <mergeCell ref="B312:C312"/>
     <mergeCell ref="B313:C313"/>
     <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="B337:D337"/>
+    <mergeCell ref="B338:D338"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="B330:D330"/>
+    <mergeCell ref="B331:D331"/>
+    <mergeCell ref="B332:D332"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
@@ -4336,23 +4409,22 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4361,12 +4433,1230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="42.09765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="68">
+        <f>D4*E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="68">
+        <f t="shared" ref="F5:F68" si="0">D5*E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="68">
+        <f t="shared" ref="F69:F132" si="1">D69*E69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="68">
+        <f t="shared" ref="F133:F196" si="2">D133*E133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6">
+      <c r="F157" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6">
+      <c r="F159" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6">
+      <c r="F160" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6">
+      <c r="F162" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6">
+      <c r="F163" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6">
+      <c r="F164" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6">
+      <c r="F172" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6">
+      <c r="F176" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6">
+      <c r="F177" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6">
+      <c r="F187" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="68">
+        <f t="shared" ref="F197" si="3">D197*E197</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/template/countyreport_template.xlsx
+++ b/assets/template/countyreport_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25272" yWindow="0" windowWidth="22104" windowHeight="9984"/>
+    <workbookView xWindow="28080" yWindow="0" windowWidth="22104" windowHeight="9984"/>
   </bookViews>
   <sheets>
     <sheet name="ART Patients" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>MINISTRY OF HEALTH, NASCOP Unit</t>
   </si>
@@ -262,33 +262,6 @@
     <t>*2nd Line, other codes listed as per new ARV LMIS tools</t>
   </si>
   <si>
-    <r>
-      <t>D. Average scale-up rate (12 months rolling) for ART:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>4,399 patients per month</t>
-    </r>
-  </si>
-  <si>
     <t>Non Reporting Sites</t>
   </si>
   <si>
@@ -345,7 +318,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,22 +356,6 @@
       <b/>
       <i/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -622,6 +579,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -778,228 +744,229 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1357,7 +1324,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1372,14 +1339,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="44.4" customHeight="1">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1391,16 +1358,16 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -1412,14 +1379,14 @@
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -1431,16 +1398,16 @@
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17" ht="14.4">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="29"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1452,20 +1419,20 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="74"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -1477,18 +1444,18 @@
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="6"/>
       <c r="D6" s="25"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -1500,16 +1467,16 @@
       <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="6"/>
       <c r="D7" s="25"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="32"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -1521,10 +1488,10 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="6"/>
       <c r="D8" s="25"/>
       <c r="E8" s="6"/>
@@ -1548,10 +1515,10 @@
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="14.4">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1742,12 +1709,10 @@
       <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" ht="22.2" customHeight="1">
-      <c r="A17" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="15"/>
       <c r="F17" s="7" t="s">
         <v>28</v>
@@ -1769,12 +1734,12 @@
       <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="14.4">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
         <v>29</v>
@@ -1795,11 +1760,11 @@
       <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="6"/>
       <c r="F19" s="20" t="s">
         <v>30</v>
@@ -1817,12 +1782,12 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="14.4">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="16"/>
       <c r="F20" s="20" t="s">
         <v>31</v>
@@ -1843,11 +1808,11 @@
       <c r="A21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="6"/>
       <c r="F21" s="20" t="s">
         <v>32</v>
@@ -2331,13 +2296,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="F5:F7"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="G5:H5"/>
@@ -2346,6 +2304,13 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2371,24 +2336,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="A1" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="51"/>
       <c r="B2" s="50"/>
       <c r="C2" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="55"/>
     </row>
@@ -2396,7 +2361,7 @@
       <c r="A4" s="50"/>
       <c r="B4" s="50"/>
       <c r="C4" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="55"/>
     </row>
@@ -2404,1715 +2369,1979 @@
       <c r="A5" s="50"/>
       <c r="B5" s="50"/>
       <c r="C5" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="15.6">
-      <c r="A6" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="A6" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="93" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="52"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="52"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="52"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="52"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="52"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="52"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="52"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="52"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="52"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="52"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="52"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="52"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="52"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="52"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="52"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="52"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="52"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="52"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="52"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="52"/>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="52"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="52"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="52"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="52"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="52"/>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="52"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="52"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="52"/>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="52"/>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="52"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="52"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="52"/>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="52"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="52"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="52"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="52"/>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="52"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="52"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="52"/>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="52"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
       <c r="D77" s="52"/>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="52"/>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="52"/>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="52"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
       <c r="D81" s="52"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
       <c r="D82" s="52"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="90"/>
-      <c r="C85" s="90"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
       <c r="D85" s="52"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="52"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="90"/>
-      <c r="C87" s="90"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
       <c r="D87" s="52"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="52"/>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
       <c r="D89" s="52"/>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="90"/>
-      <c r="C90" s="90"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="52"/>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="90"/>
-      <c r="C91" s="90"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="90"/>
-      <c r="C92" s="90"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="90"/>
-      <c r="C93" s="90"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="90"/>
-      <c r="C94" s="90"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="90"/>
-      <c r="C95" s="90"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
       <c r="D95" s="52"/>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="90"/>
-      <c r="C96" s="90"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="52"/>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="90"/>
-      <c r="C97" s="90"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
       <c r="D97" s="52"/>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="90"/>
-      <c r="C98" s="90"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="52"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="90"/>
-      <c r="C99" s="90"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="52"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="90"/>
-      <c r="C100" s="90"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="52"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="90"/>
-      <c r="C101" s="90"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
       <c r="D101" s="52"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="90"/>
-      <c r="C102" s="90"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
       <c r="D102" s="52"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="90"/>
-      <c r="C103" s="90"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
       <c r="D103" s="52"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="90"/>
-      <c r="C104" s="90"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="52"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="90"/>
-      <c r="C105" s="90"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
       <c r="D105" s="52"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="90"/>
-      <c r="C106" s="90"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="52"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="90"/>
-      <c r="C107" s="90"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
       <c r="D107" s="52"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="90"/>
-      <c r="C108" s="90"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="52"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="90"/>
-      <c r="C109" s="90"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92"/>
       <c r="D109" s="52"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="90"/>
-      <c r="C110" s="90"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="52"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="90"/>
-      <c r="C111" s="90"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="92"/>
       <c r="D111" s="52"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="52"/>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="90"/>
-      <c r="C113" s="90"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="92"/>
       <c r="D113" s="52"/>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="90"/>
-      <c r="C114" s="90"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
       <c r="D114" s="52"/>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="90"/>
-      <c r="C115" s="90"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
       <c r="D115" s="52"/>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="90"/>
-      <c r="C116" s="90"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="92"/>
       <c r="D116" s="52"/>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="90"/>
-      <c r="C117" s="90"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
       <c r="D117" s="52"/>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="90"/>
-      <c r="C118" s="90"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="52"/>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="90"/>
-      <c r="C119" s="90"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="52"/>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="90"/>
-      <c r="C120" s="90"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="52"/>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="90"/>
-      <c r="C121" s="90"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
       <c r="D121" s="52"/>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="90"/>
-      <c r="C122" s="90"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="52"/>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="90"/>
-      <c r="C123" s="90"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="52"/>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="90"/>
-      <c r="C124" s="90"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="52"/>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="90"/>
-      <c r="C125" s="90"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="52"/>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="90"/>
-      <c r="C126" s="90"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="52"/>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="90"/>
-      <c r="C127" s="90"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="92"/>
       <c r="D127" s="52"/>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="90"/>
-      <c r="C128" s="90"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="52"/>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="90"/>
-      <c r="C129" s="90"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
       <c r="D129" s="52"/>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="90"/>
-      <c r="C130" s="90"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="92"/>
       <c r="D130" s="52"/>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="90"/>
-      <c r="C131" s="90"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="92"/>
       <c r="D131" s="52"/>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="90"/>
-      <c r="C132" s="90"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="92"/>
       <c r="D132" s="52"/>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="90"/>
-      <c r="C133" s="90"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="92"/>
       <c r="D133" s="52"/>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="90"/>
-      <c r="C134" s="90"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="92"/>
       <c r="D134" s="52"/>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="90"/>
-      <c r="C135" s="90"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="92"/>
       <c r="D135" s="52"/>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="90"/>
-      <c r="C136" s="90"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="92"/>
       <c r="D136" s="52"/>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="90"/>
-      <c r="C137" s="90"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="92"/>
       <c r="D137" s="52"/>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="90"/>
-      <c r="C138" s="90"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="92"/>
       <c r="D138" s="52"/>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="90"/>
-      <c r="C139" s="90"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="92"/>
       <c r="D139" s="52"/>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="90"/>
-      <c r="C140" s="90"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
       <c r="D140" s="52"/>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="90"/>
-      <c r="C141" s="90"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92"/>
       <c r="D141" s="52"/>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="90"/>
-      <c r="C142" s="90"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="92"/>
       <c r="D142" s="52"/>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="90"/>
-      <c r="C143" s="90"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="92"/>
       <c r="D143" s="52"/>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="90"/>
-      <c r="C144" s="90"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="92"/>
       <c r="D144" s="52"/>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="90"/>
-      <c r="C145" s="90"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="92"/>
       <c r="D145" s="52"/>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="90"/>
-      <c r="C146" s="90"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="92"/>
       <c r="D146" s="52"/>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="90"/>
-      <c r="C147" s="90"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="92"/>
       <c r="D147" s="52"/>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="90"/>
-      <c r="C148" s="90"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="92"/>
       <c r="D148" s="52"/>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="90"/>
-      <c r="C149" s="90"/>
+      <c r="B149" s="92"/>
+      <c r="C149" s="92"/>
       <c r="D149" s="52"/>
     </row>
     <row r="150" spans="2:4">
-      <c r="B150" s="90"/>
-      <c r="C150" s="90"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="92"/>
       <c r="D150" s="52"/>
     </row>
     <row r="151" spans="2:4">
-      <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
+      <c r="B151" s="92"/>
+      <c r="C151" s="92"/>
       <c r="D151" s="52"/>
     </row>
     <row r="152" spans="2:4">
-      <c r="B152" s="90"/>
-      <c r="C152" s="90"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="92"/>
       <c r="D152" s="52"/>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="90"/>
-      <c r="C153" s="90"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="92"/>
       <c r="D153" s="52"/>
     </row>
     <row r="154" spans="2:4">
-      <c r="B154" s="90"/>
-      <c r="C154" s="90"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="92"/>
       <c r="D154" s="52"/>
     </row>
     <row r="155" spans="2:4">
-      <c r="B155" s="90"/>
-      <c r="C155" s="90"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="92"/>
       <c r="D155" s="52"/>
     </row>
     <row r="156" spans="2:4">
-      <c r="B156" s="90"/>
-      <c r="C156" s="90"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="52"/>
     </row>
     <row r="157" spans="2:4">
-      <c r="B157" s="90"/>
-      <c r="C157" s="90"/>
+      <c r="B157" s="92"/>
+      <c r="C157" s="92"/>
       <c r="D157" s="52"/>
     </row>
     <row r="158" spans="2:4">
-      <c r="B158" s="90"/>
-      <c r="C158" s="90"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="92"/>
       <c r="D158" s="52"/>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="90"/>
-      <c r="C159" s="90"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="92"/>
       <c r="D159" s="52"/>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="90"/>
-      <c r="C160" s="90"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="92"/>
       <c r="D160" s="52"/>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="90"/>
-      <c r="C161" s="90"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="92"/>
       <c r="D161" s="52"/>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="90"/>
-      <c r="C162" s="90"/>
+      <c r="B162" s="92"/>
+      <c r="C162" s="92"/>
       <c r="D162" s="52"/>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="90"/>
-      <c r="C163" s="90"/>
+      <c r="B163" s="92"/>
+      <c r="C163" s="92"/>
       <c r="D163" s="52"/>
     </row>
     <row r="164" spans="2:4">
-      <c r="B164" s="90"/>
-      <c r="C164" s="90"/>
+      <c r="B164" s="92"/>
+      <c r="C164" s="92"/>
       <c r="D164" s="52"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="90"/>
-      <c r="C165" s="90"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="92"/>
       <c r="D165" s="52"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="90"/>
-      <c r="C166" s="90"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="92"/>
       <c r="D166" s="52"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="90"/>
-      <c r="C167" s="90"/>
+      <c r="B167" s="92"/>
+      <c r="C167" s="92"/>
       <c r="D167" s="52"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="90"/>
-      <c r="C168" s="90"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="92"/>
       <c r="D168" s="52"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="90"/>
-      <c r="C169" s="90"/>
+      <c r="B169" s="92"/>
+      <c r="C169" s="92"/>
       <c r="D169" s="52"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="90"/>
-      <c r="C170" s="90"/>
+      <c r="B170" s="92"/>
+      <c r="C170" s="92"/>
       <c r="D170" s="52"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="90"/>
-      <c r="C171" s="90"/>
+      <c r="B171" s="92"/>
+      <c r="C171" s="92"/>
       <c r="D171" s="52"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="90"/>
-      <c r="C172" s="90"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="92"/>
       <c r="D172" s="52"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="90"/>
-      <c r="C173" s="90"/>
+      <c r="B173" s="92"/>
+      <c r="C173" s="92"/>
       <c r="D173" s="52"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="90"/>
-      <c r="C174" s="90"/>
+      <c r="B174" s="92"/>
+      <c r="C174" s="92"/>
       <c r="D174" s="52"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="90"/>
-      <c r="C175" s="90"/>
+      <c r="B175" s="92"/>
+      <c r="C175" s="92"/>
       <c r="D175" s="52"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="90"/>
-      <c r="C176" s="90"/>
+      <c r="B176" s="92"/>
+      <c r="C176" s="92"/>
       <c r="D176" s="52"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="90"/>
-      <c r="C177" s="90"/>
+      <c r="B177" s="92"/>
+      <c r="C177" s="92"/>
       <c r="D177" s="52"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="90"/>
-      <c r="C178" s="90"/>
+      <c r="B178" s="92"/>
+      <c r="C178" s="92"/>
       <c r="D178" s="52"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="90"/>
-      <c r="C179" s="90"/>
+      <c r="B179" s="92"/>
+      <c r="C179" s="92"/>
       <c r="D179" s="52"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="90"/>
-      <c r="C180" s="90"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="92"/>
       <c r="D180" s="52"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="90"/>
-      <c r="C181" s="90"/>
+      <c r="B181" s="92"/>
+      <c r="C181" s="92"/>
       <c r="D181" s="52"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="90"/>
-      <c r="C182" s="90"/>
+      <c r="B182" s="92"/>
+      <c r="C182" s="92"/>
       <c r="D182" s="52"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="90"/>
-      <c r="C183" s="90"/>
+      <c r="B183" s="92"/>
+      <c r="C183" s="92"/>
       <c r="D183" s="52"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="90"/>
-      <c r="C184" s="90"/>
+      <c r="B184" s="92"/>
+      <c r="C184" s="92"/>
       <c r="D184" s="52"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="90"/>
-      <c r="C185" s="90"/>
+      <c r="B185" s="92"/>
+      <c r="C185" s="92"/>
       <c r="D185" s="52"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="90"/>
-      <c r="C186" s="90"/>
+      <c r="B186" s="92"/>
+      <c r="C186" s="92"/>
       <c r="D186" s="52"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="90"/>
-      <c r="C187" s="90"/>
+      <c r="B187" s="92"/>
+      <c r="C187" s="92"/>
       <c r="D187" s="52"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="90"/>
-      <c r="C188" s="90"/>
+      <c r="B188" s="92"/>
+      <c r="C188" s="92"/>
       <c r="D188" s="52"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="90"/>
-      <c r="C189" s="90"/>
+      <c r="B189" s="92"/>
+      <c r="C189" s="92"/>
       <c r="D189" s="52"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="90"/>
-      <c r="C190" s="90"/>
+      <c r="B190" s="92"/>
+      <c r="C190" s="92"/>
       <c r="D190" s="52"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="90"/>
-      <c r="C191" s="90"/>
+      <c r="B191" s="92"/>
+      <c r="C191" s="92"/>
       <c r="D191" s="52"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="90"/>
-      <c r="C192" s="90"/>
+      <c r="B192" s="92"/>
+      <c r="C192" s="92"/>
       <c r="D192" s="52"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="90"/>
-      <c r="C193" s="90"/>
+      <c r="B193" s="92"/>
+      <c r="C193" s="92"/>
       <c r="D193" s="52"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="90"/>
-      <c r="C194" s="90"/>
+      <c r="B194" s="92"/>
+      <c r="C194" s="92"/>
       <c r="D194" s="52"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="90"/>
-      <c r="C195" s="90"/>
+      <c r="B195" s="92"/>
+      <c r="C195" s="92"/>
       <c r="D195" s="52"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="90"/>
-      <c r="C196" s="90"/>
+      <c r="B196" s="92"/>
+      <c r="C196" s="92"/>
       <c r="D196" s="52"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="90"/>
-      <c r="C197" s="90"/>
+      <c r="B197" s="92"/>
+      <c r="C197" s="92"/>
       <c r="D197" s="52"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="90"/>
-      <c r="C198" s="90"/>
+      <c r="B198" s="92"/>
+      <c r="C198" s="92"/>
       <c r="D198" s="52"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="90"/>
-      <c r="C199" s="90"/>
+      <c r="B199" s="92"/>
+      <c r="C199" s="92"/>
       <c r="D199" s="52"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="90"/>
-      <c r="C200" s="90"/>
+      <c r="B200" s="92"/>
+      <c r="C200" s="92"/>
       <c r="D200" s="52"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="90"/>
-      <c r="C201" s="90"/>
+      <c r="B201" s="92"/>
+      <c r="C201" s="92"/>
       <c r="D201" s="52"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="90"/>
-      <c r="C202" s="90"/>
+      <c r="B202" s="92"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="52"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="90"/>
-      <c r="C203" s="90"/>
+      <c r="B203" s="92"/>
+      <c r="C203" s="92"/>
       <c r="D203" s="52"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="90"/>
-      <c r="C204" s="90"/>
+      <c r="B204" s="92"/>
+      <c r="C204" s="92"/>
       <c r="D204" s="52"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="90"/>
-      <c r="C205" s="90"/>
+      <c r="B205" s="92"/>
+      <c r="C205" s="92"/>
       <c r="D205" s="52"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="90"/>
-      <c r="C206" s="90"/>
+      <c r="B206" s="92"/>
+      <c r="C206" s="92"/>
       <c r="D206" s="52"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="90"/>
-      <c r="C207" s="90"/>
+      <c r="B207" s="92"/>
+      <c r="C207" s="92"/>
       <c r="D207" s="52"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="90"/>
-      <c r="C208" s="90"/>
+      <c r="B208" s="92"/>
+      <c r="C208" s="92"/>
       <c r="D208" s="52"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="90"/>
-      <c r="C209" s="90"/>
+      <c r="B209" s="92"/>
+      <c r="C209" s="92"/>
       <c r="D209" s="52"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="90"/>
-      <c r="C210" s="90"/>
+      <c r="B210" s="92"/>
+      <c r="C210" s="92"/>
       <c r="D210" s="52"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="90"/>
-      <c r="C211" s="90"/>
+      <c r="B211" s="92"/>
+      <c r="C211" s="92"/>
       <c r="D211" s="52"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="90"/>
-      <c r="C212" s="90"/>
+      <c r="B212" s="92"/>
+      <c r="C212" s="92"/>
       <c r="D212" s="52"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="90"/>
-      <c r="C213" s="90"/>
+      <c r="B213" s="92"/>
+      <c r="C213" s="92"/>
       <c r="D213" s="52"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="90"/>
-      <c r="C214" s="90"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="92"/>
       <c r="D214" s="52"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="90"/>
-      <c r="C215" s="90"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="92"/>
       <c r="D215" s="52"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="90"/>
-      <c r="C216" s="90"/>
+      <c r="B216" s="92"/>
+      <c r="C216" s="92"/>
       <c r="D216" s="52"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="90"/>
-      <c r="C217" s="90"/>
+      <c r="B217" s="92"/>
+      <c r="C217" s="92"/>
       <c r="D217" s="52"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="90"/>
-      <c r="C218" s="90"/>
+      <c r="B218" s="92"/>
+      <c r="C218" s="92"/>
       <c r="D218" s="52"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="90"/>
-      <c r="C219" s="90"/>
+      <c r="B219" s="92"/>
+      <c r="C219" s="92"/>
       <c r="D219" s="52"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="90"/>
-      <c r="C220" s="90"/>
+      <c r="B220" s="92"/>
+      <c r="C220" s="92"/>
       <c r="D220" s="52"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="90"/>
-      <c r="C221" s="90"/>
+      <c r="B221" s="92"/>
+      <c r="C221" s="92"/>
       <c r="D221" s="52"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="90"/>
-      <c r="C222" s="90"/>
+      <c r="B222" s="92"/>
+      <c r="C222" s="92"/>
       <c r="D222" s="52"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="90"/>
-      <c r="C223" s="90"/>
+      <c r="B223" s="92"/>
+      <c r="C223" s="92"/>
       <c r="D223" s="52"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="90"/>
-      <c r="C224" s="90"/>
+      <c r="B224" s="92"/>
+      <c r="C224" s="92"/>
       <c r="D224" s="52"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="90"/>
-      <c r="C225" s="90"/>
+      <c r="B225" s="92"/>
+      <c r="C225" s="92"/>
       <c r="D225" s="52"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="90"/>
-      <c r="C226" s="90"/>
+      <c r="B226" s="92"/>
+      <c r="C226" s="92"/>
       <c r="D226" s="52"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="90"/>
-      <c r="C227" s="90"/>
+      <c r="B227" s="92"/>
+      <c r="C227" s="92"/>
       <c r="D227" s="52"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="90"/>
-      <c r="C228" s="90"/>
+      <c r="B228" s="92"/>
+      <c r="C228" s="92"/>
       <c r="D228" s="52"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="90"/>
-      <c r="C229" s="90"/>
+      <c r="B229" s="92"/>
+      <c r="C229" s="92"/>
       <c r="D229" s="52"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="90"/>
-      <c r="C230" s="90"/>
+      <c r="B230" s="92"/>
+      <c r="C230" s="92"/>
       <c r="D230" s="52"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="90"/>
-      <c r="C231" s="90"/>
+      <c r="B231" s="92"/>
+      <c r="C231" s="92"/>
       <c r="D231" s="52"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="90"/>
-      <c r="C232" s="90"/>
+      <c r="B232" s="92"/>
+      <c r="C232" s="92"/>
       <c r="D232" s="52"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="90"/>
-      <c r="C233" s="90"/>
+      <c r="B233" s="92"/>
+      <c r="C233" s="92"/>
       <c r="D233" s="52"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="90"/>
-      <c r="C234" s="90"/>
+      <c r="B234" s="92"/>
+      <c r="C234" s="92"/>
       <c r="D234" s="52"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="90"/>
-      <c r="C235" s="90"/>
+      <c r="B235" s="92"/>
+      <c r="C235" s="92"/>
       <c r="D235" s="52"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="90"/>
-      <c r="C236" s="90"/>
+      <c r="B236" s="92"/>
+      <c r="C236" s="92"/>
       <c r="D236" s="52"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="90"/>
-      <c r="C237" s="90"/>
+      <c r="B237" s="92"/>
+      <c r="C237" s="92"/>
       <c r="D237" s="52"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="90"/>
-      <c r="C238" s="90"/>
+      <c r="B238" s="92"/>
+      <c r="C238" s="92"/>
       <c r="D238" s="52"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="90"/>
-      <c r="C239" s="90"/>
+      <c r="B239" s="92"/>
+      <c r="C239" s="92"/>
       <c r="D239" s="52"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="90"/>
-      <c r="C240" s="90"/>
+      <c r="B240" s="92"/>
+      <c r="C240" s="92"/>
       <c r="D240" s="52"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="90"/>
-      <c r="C241" s="90"/>
+      <c r="B241" s="92"/>
+      <c r="C241" s="92"/>
       <c r="D241" s="52"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="90"/>
-      <c r="C242" s="90"/>
+      <c r="B242" s="92"/>
+      <c r="C242" s="92"/>
       <c r="D242" s="52"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="90"/>
-      <c r="C243" s="90"/>
+      <c r="B243" s="92"/>
+      <c r="C243" s="92"/>
       <c r="D243" s="52"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="90"/>
-      <c r="C244" s="90"/>
+      <c r="B244" s="92"/>
+      <c r="C244" s="92"/>
       <c r="D244" s="52"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="90"/>
-      <c r="C245" s="90"/>
+      <c r="B245" s="92"/>
+      <c r="C245" s="92"/>
       <c r="D245" s="52"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="90"/>
-      <c r="C246" s="90"/>
+      <c r="B246" s="92"/>
+      <c r="C246" s="92"/>
       <c r="D246" s="52"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="90"/>
-      <c r="C247" s="90"/>
+      <c r="B247" s="92"/>
+      <c r="C247" s="92"/>
       <c r="D247" s="52"/>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="90"/>
-      <c r="C248" s="90"/>
+      <c r="B248" s="92"/>
+      <c r="C248" s="92"/>
       <c r="D248" s="52"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="90"/>
-      <c r="C249" s="90"/>
+      <c r="B249" s="92"/>
+      <c r="C249" s="92"/>
       <c r="D249" s="52"/>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="90"/>
-      <c r="C250" s="90"/>
+      <c r="B250" s="92"/>
+      <c r="C250" s="92"/>
       <c r="D250" s="52"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="90"/>
-      <c r="C251" s="90"/>
+      <c r="B251" s="92"/>
+      <c r="C251" s="92"/>
       <c r="D251" s="52"/>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="90"/>
-      <c r="C252" s="90"/>
+      <c r="B252" s="92"/>
+      <c r="C252" s="92"/>
       <c r="D252" s="52"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="90"/>
-      <c r="C253" s="90"/>
+      <c r="B253" s="92"/>
+      <c r="C253" s="92"/>
       <c r="D253" s="52"/>
     </row>
     <row r="254" spans="2:4">
-      <c r="B254" s="90"/>
-      <c r="C254" s="90"/>
+      <c r="B254" s="92"/>
+      <c r="C254" s="92"/>
       <c r="D254" s="52"/>
     </row>
     <row r="255" spans="2:4">
-      <c r="B255" s="90"/>
-      <c r="C255" s="90"/>
+      <c r="B255" s="92"/>
+      <c r="C255" s="92"/>
       <c r="D255" s="52"/>
     </row>
     <row r="256" spans="2:4">
-      <c r="B256" s="90"/>
-      <c r="C256" s="90"/>
+      <c r="B256" s="92"/>
+      <c r="C256" s="92"/>
       <c r="D256" s="52"/>
     </row>
     <row r="257" spans="2:4">
-      <c r="B257" s="90"/>
-      <c r="C257" s="90"/>
+      <c r="B257" s="92"/>
+      <c r="C257" s="92"/>
       <c r="D257" s="52"/>
     </row>
     <row r="258" spans="2:4">
-      <c r="B258" s="90"/>
-      <c r="C258" s="90"/>
+      <c r="B258" s="92"/>
+      <c r="C258" s="92"/>
       <c r="D258" s="52"/>
     </row>
     <row r="259" spans="2:4">
-      <c r="B259" s="90"/>
-      <c r="C259" s="90"/>
+      <c r="B259" s="92"/>
+      <c r="C259" s="92"/>
       <c r="D259" s="52"/>
     </row>
     <row r="260" spans="2:4">
-      <c r="B260" s="90"/>
-      <c r="C260" s="90"/>
+      <c r="B260" s="92"/>
+      <c r="C260" s="92"/>
       <c r="D260" s="52"/>
     </row>
     <row r="261" spans="2:4">
-      <c r="B261" s="90"/>
-      <c r="C261" s="90"/>
+      <c r="B261" s="92"/>
+      <c r="C261" s="92"/>
       <c r="D261" s="52"/>
     </row>
     <row r="262" spans="2:4">
-      <c r="B262" s="90"/>
-      <c r="C262" s="90"/>
+      <c r="B262" s="92"/>
+      <c r="C262" s="92"/>
       <c r="D262" s="52"/>
     </row>
     <row r="263" spans="2:4">
-      <c r="B263" s="90"/>
-      <c r="C263" s="90"/>
+      <c r="B263" s="92"/>
+      <c r="C263" s="92"/>
       <c r="D263" s="52"/>
     </row>
     <row r="264" spans="2:4">
-      <c r="B264" s="90"/>
-      <c r="C264" s="90"/>
+      <c r="B264" s="92"/>
+      <c r="C264" s="92"/>
       <c r="D264" s="52"/>
     </row>
     <row r="265" spans="2:4">
-      <c r="B265" s="90"/>
-      <c r="C265" s="90"/>
+      <c r="B265" s="92"/>
+      <c r="C265" s="92"/>
       <c r="D265" s="52"/>
     </row>
     <row r="266" spans="2:4">
-      <c r="B266" s="90"/>
-      <c r="C266" s="90"/>
+      <c r="B266" s="92"/>
+      <c r="C266" s="92"/>
       <c r="D266" s="52"/>
     </row>
     <row r="267" spans="2:4">
-      <c r="B267" s="90"/>
-      <c r="C267" s="90"/>
+      <c r="B267" s="92"/>
+      <c r="C267" s="92"/>
       <c r="D267" s="52"/>
     </row>
     <row r="268" spans="2:4">
-      <c r="B268" s="90"/>
-      <c r="C268" s="90"/>
+      <c r="B268" s="92"/>
+      <c r="C268" s="92"/>
       <c r="D268" s="52"/>
     </row>
     <row r="269" spans="2:4">
-      <c r="B269" s="90"/>
-      <c r="C269" s="90"/>
+      <c r="B269" s="92"/>
+      <c r="C269" s="92"/>
       <c r="D269" s="52"/>
     </row>
     <row r="270" spans="2:4">
-      <c r="B270" s="90"/>
-      <c r="C270" s="90"/>
+      <c r="B270" s="92"/>
+      <c r="C270" s="92"/>
       <c r="D270" s="52"/>
     </row>
     <row r="271" spans="2:4">
-      <c r="B271" s="90"/>
-      <c r="C271" s="90"/>
+      <c r="B271" s="92"/>
+      <c r="C271" s="92"/>
       <c r="D271" s="52"/>
     </row>
     <row r="272" spans="2:4">
-      <c r="B272" s="90"/>
-      <c r="C272" s="90"/>
+      <c r="B272" s="92"/>
+      <c r="C272" s="92"/>
       <c r="D272" s="52"/>
     </row>
     <row r="273" spans="2:4">
-      <c r="B273" s="90"/>
-      <c r="C273" s="90"/>
+      <c r="B273" s="92"/>
+      <c r="C273" s="92"/>
       <c r="D273" s="52"/>
     </row>
     <row r="274" spans="2:4">
-      <c r="B274" s="90"/>
-      <c r="C274" s="90"/>
+      <c r="B274" s="92"/>
+      <c r="C274" s="92"/>
       <c r="D274" s="52"/>
     </row>
     <row r="275" spans="2:4">
-      <c r="B275" s="90"/>
-      <c r="C275" s="90"/>
+      <c r="B275" s="92"/>
+      <c r="C275" s="92"/>
       <c r="D275" s="52"/>
     </row>
     <row r="276" spans="2:4">
-      <c r="B276" s="90"/>
-      <c r="C276" s="90"/>
+      <c r="B276" s="92"/>
+      <c r="C276" s="92"/>
       <c r="D276" s="52"/>
     </row>
     <row r="277" spans="2:4">
-      <c r="B277" s="90"/>
-      <c r="C277" s="90"/>
+      <c r="B277" s="92"/>
+      <c r="C277" s="92"/>
       <c r="D277" s="52"/>
     </row>
     <row r="278" spans="2:4">
-      <c r="B278" s="90"/>
-      <c r="C278" s="90"/>
+      <c r="B278" s="92"/>
+      <c r="C278" s="92"/>
       <c r="D278" s="52"/>
     </row>
     <row r="279" spans="2:4">
-      <c r="B279" s="90"/>
-      <c r="C279" s="90"/>
+      <c r="B279" s="92"/>
+      <c r="C279" s="92"/>
       <c r="D279" s="52"/>
     </row>
     <row r="280" spans="2:4">
-      <c r="B280" s="90"/>
-      <c r="C280" s="90"/>
+      <c r="B280" s="92"/>
+      <c r="C280" s="92"/>
       <c r="D280" s="52"/>
     </row>
     <row r="281" spans="2:4">
-      <c r="B281" s="90"/>
-      <c r="C281" s="90"/>
+      <c r="B281" s="92"/>
+      <c r="C281" s="92"/>
       <c r="D281" s="52"/>
     </row>
     <row r="282" spans="2:4">
-      <c r="B282" s="90"/>
-      <c r="C282" s="90"/>
+      <c r="B282" s="92"/>
+      <c r="C282" s="92"/>
       <c r="D282" s="52"/>
     </row>
     <row r="283" spans="2:4">
-      <c r="B283" s="90"/>
-      <c r="C283" s="90"/>
+      <c r="B283" s="92"/>
+      <c r="C283" s="92"/>
       <c r="D283" s="52"/>
     </row>
     <row r="284" spans="2:4">
-      <c r="B284" s="90"/>
-      <c r="C284" s="90"/>
+      <c r="B284" s="92"/>
+      <c r="C284" s="92"/>
       <c r="D284" s="52"/>
     </row>
     <row r="285" spans="2:4">
-      <c r="B285" s="90"/>
-      <c r="C285" s="90"/>
+      <c r="B285" s="92"/>
+      <c r="C285" s="92"/>
       <c r="D285" s="52"/>
     </row>
     <row r="286" spans="2:4">
-      <c r="B286" s="90"/>
-      <c r="C286" s="90"/>
+      <c r="B286" s="92"/>
+      <c r="C286" s="92"/>
       <c r="D286" s="52"/>
     </row>
     <row r="287" spans="2:4">
-      <c r="B287" s="90"/>
-      <c r="C287" s="90"/>
+      <c r="B287" s="92"/>
+      <c r="C287" s="92"/>
       <c r="D287" s="52"/>
     </row>
     <row r="288" spans="2:4">
-      <c r="B288" s="90"/>
-      <c r="C288" s="90"/>
+      <c r="B288" s="92"/>
+      <c r="C288" s="92"/>
       <c r="D288" s="52"/>
     </row>
     <row r="289" spans="2:4">
-      <c r="B289" s="90"/>
-      <c r="C289" s="90"/>
+      <c r="B289" s="92"/>
+      <c r="C289" s="92"/>
       <c r="D289" s="52"/>
     </row>
     <row r="290" spans="2:4">
-      <c r="B290" s="90"/>
-      <c r="C290" s="90"/>
+      <c r="B290" s="92"/>
+      <c r="C290" s="92"/>
       <c r="D290" s="52"/>
     </row>
     <row r="291" spans="2:4">
-      <c r="B291" s="90"/>
-      <c r="C291" s="90"/>
+      <c r="B291" s="92"/>
+      <c r="C291" s="92"/>
       <c r="D291" s="52"/>
     </row>
     <row r="292" spans="2:4">
-      <c r="B292" s="90"/>
-      <c r="C292" s="90"/>
+      <c r="B292" s="92"/>
+      <c r="C292" s="92"/>
       <c r="D292" s="52"/>
     </row>
     <row r="293" spans="2:4">
-      <c r="B293" s="90"/>
-      <c r="C293" s="90"/>
+      <c r="B293" s="92"/>
+      <c r="C293" s="92"/>
       <c r="D293" s="52"/>
     </row>
     <row r="294" spans="2:4">
-      <c r="B294" s="90"/>
-      <c r="C294" s="90"/>
+      <c r="B294" s="92"/>
+      <c r="C294" s="92"/>
       <c r="D294" s="52"/>
     </row>
     <row r="295" spans="2:4">
-      <c r="B295" s="90"/>
-      <c r="C295" s="90"/>
+      <c r="B295" s="92"/>
+      <c r="C295" s="92"/>
       <c r="D295" s="52"/>
     </row>
     <row r="296" spans="2:4">
-      <c r="B296" s="90"/>
-      <c r="C296" s="90"/>
+      <c r="B296" s="92"/>
+      <c r="C296" s="92"/>
       <c r="D296" s="52"/>
     </row>
     <row r="297" spans="2:4">
-      <c r="B297" s="90"/>
-      <c r="C297" s="90"/>
+      <c r="B297" s="92"/>
+      <c r="C297" s="92"/>
       <c r="D297" s="52"/>
     </row>
     <row r="298" spans="2:4">
-      <c r="B298" s="90"/>
-      <c r="C298" s="90"/>
+      <c r="B298" s="92"/>
+      <c r="C298" s="92"/>
       <c r="D298" s="52"/>
     </row>
     <row r="299" spans="2:4">
-      <c r="B299" s="90"/>
-      <c r="C299" s="90"/>
+      <c r="B299" s="92"/>
+      <c r="C299" s="92"/>
       <c r="D299" s="52"/>
     </row>
     <row r="300" spans="2:4">
-      <c r="B300" s="90"/>
-      <c r="C300" s="90"/>
+      <c r="B300" s="92"/>
+      <c r="C300" s="92"/>
       <c r="D300" s="52"/>
     </row>
     <row r="301" spans="2:4">
-      <c r="B301" s="90"/>
-      <c r="C301" s="90"/>
+      <c r="B301" s="92"/>
+      <c r="C301" s="92"/>
       <c r="D301" s="52"/>
     </row>
     <row r="302" spans="2:4">
-      <c r="B302" s="90"/>
-      <c r="C302" s="90"/>
+      <c r="B302" s="92"/>
+      <c r="C302" s="92"/>
       <c r="D302" s="52"/>
     </row>
     <row r="303" spans="2:4">
-      <c r="B303" s="90"/>
-      <c r="C303" s="90"/>
+      <c r="B303" s="92"/>
+      <c r="C303" s="92"/>
       <c r="D303" s="52"/>
     </row>
     <row r="304" spans="2:4">
-      <c r="B304" s="90"/>
-      <c r="C304" s="90"/>
+      <c r="B304" s="92"/>
+      <c r="C304" s="92"/>
       <c r="D304" s="52"/>
     </row>
     <row r="305" spans="2:4">
-      <c r="B305" s="90"/>
-      <c r="C305" s="90"/>
+      <c r="B305" s="92"/>
+      <c r="C305" s="92"/>
       <c r="D305" s="52"/>
     </row>
     <row r="306" spans="2:4">
-      <c r="B306" s="90"/>
-      <c r="C306" s="90"/>
+      <c r="B306" s="92"/>
+      <c r="C306" s="92"/>
       <c r="D306" s="52"/>
     </row>
     <row r="307" spans="2:4">
-      <c r="B307" s="90"/>
-      <c r="C307" s="90"/>
+      <c r="B307" s="92"/>
+      <c r="C307" s="92"/>
       <c r="D307" s="52"/>
     </row>
     <row r="308" spans="2:4">
-      <c r="B308" s="90"/>
-      <c r="C308" s="90"/>
+      <c r="B308" s="92"/>
+      <c r="C308" s="92"/>
       <c r="D308" s="52"/>
     </row>
     <row r="309" spans="2:4">
-      <c r="B309" s="90"/>
-      <c r="C309" s="90"/>
+      <c r="B309" s="92"/>
+      <c r="C309" s="92"/>
       <c r="D309" s="52"/>
     </row>
     <row r="310" spans="2:4">
-      <c r="B310" s="90"/>
-      <c r="C310" s="90"/>
+      <c r="B310" s="92"/>
+      <c r="C310" s="92"/>
       <c r="D310" s="52"/>
     </row>
     <row r="311" spans="2:4">
-      <c r="B311" s="90"/>
-      <c r="C311" s="90"/>
+      <c r="B311" s="92"/>
+      <c r="C311" s="92"/>
       <c r="D311" s="52"/>
     </row>
     <row r="312" spans="2:4">
-      <c r="B312" s="90"/>
-      <c r="C312" s="90"/>
+      <c r="B312" s="92"/>
+      <c r="C312" s="92"/>
       <c r="D312" s="52"/>
     </row>
     <row r="313" spans="2:4">
-      <c r="B313" s="90"/>
-      <c r="C313" s="90"/>
+      <c r="B313" s="92"/>
+      <c r="C313" s="92"/>
       <c r="D313" s="52"/>
     </row>
     <row r="314" spans="2:4">
-      <c r="B314" s="90"/>
-      <c r="C314" s="90"/>
+      <c r="B314" s="92"/>
+      <c r="C314" s="92"/>
       <c r="D314" s="52"/>
     </row>
     <row r="315" spans="2:4">
-      <c r="B315" s="90"/>
-      <c r="C315" s="90"/>
+      <c r="B315" s="92"/>
+      <c r="C315" s="92"/>
       <c r="D315" s="52"/>
     </row>
     <row r="316" spans="2:4">
-      <c r="B316" s="90"/>
-      <c r="C316" s="90"/>
+      <c r="B316" s="92"/>
+      <c r="C316" s="92"/>
       <c r="D316" s="52"/>
     </row>
     <row r="317" spans="2:4">
-      <c r="B317" s="90"/>
-      <c r="C317" s="90"/>
+      <c r="B317" s="92"/>
+      <c r="C317" s="92"/>
       <c r="D317" s="52"/>
     </row>
     <row r="318" spans="2:4">
-      <c r="B318" s="90"/>
-      <c r="C318" s="90"/>
+      <c r="B318" s="92"/>
+      <c r="C318" s="92"/>
       <c r="D318" s="52"/>
     </row>
     <row r="319" spans="2:4">
-      <c r="B319" s="90"/>
-      <c r="C319" s="90"/>
+      <c r="B319" s="92"/>
+      <c r="C319" s="92"/>
       <c r="D319" s="52"/>
     </row>
     <row r="320" spans="2:4">
-      <c r="B320" s="90"/>
-      <c r="C320" s="90"/>
+      <c r="B320" s="92"/>
+      <c r="C320" s="92"/>
       <c r="D320" s="52"/>
     </row>
     <row r="321" spans="2:4">
-      <c r="B321" s="90"/>
-      <c r="C321" s="90"/>
+      <c r="B321" s="92"/>
+      <c r="C321" s="92"/>
       <c r="D321" s="52"/>
     </row>
     <row r="322" spans="2:4">
-      <c r="B322" s="90"/>
-      <c r="C322" s="90"/>
+      <c r="B322" s="92"/>
+      <c r="C322" s="92"/>
       <c r="D322" s="52"/>
     </row>
     <row r="323" spans="2:4">
-      <c r="B323" s="90"/>
-      <c r="C323" s="90"/>
+      <c r="B323" s="92"/>
+      <c r="C323" s="92"/>
       <c r="D323" s="52"/>
     </row>
     <row r="324" spans="2:4">
-      <c r="B324" s="90"/>
-      <c r="C324" s="90"/>
+      <c r="B324" s="92"/>
+      <c r="C324" s="92"/>
       <c r="D324" s="52"/>
     </row>
     <row r="325" spans="2:4">
-      <c r="B325" s="90"/>
-      <c r="C325" s="90"/>
+      <c r="B325" s="92"/>
+      <c r="C325" s="92"/>
       <c r="D325" s="52"/>
     </row>
     <row r="326" spans="2:4">
-      <c r="B326" s="90"/>
-      <c r="C326" s="90"/>
+      <c r="B326" s="92"/>
+      <c r="C326" s="92"/>
       <c r="D326" s="52"/>
     </row>
     <row r="327" spans="2:4">
-      <c r="B327" s="90"/>
-      <c r="C327" s="90"/>
+      <c r="B327" s="92"/>
+      <c r="C327" s="92"/>
       <c r="D327" s="52"/>
     </row>
     <row r="328" spans="2:4">
-      <c r="B328" s="90"/>
-      <c r="C328" s="90"/>
-      <c r="D328" s="90"/>
+      <c r="B328" s="92"/>
+      <c r="C328" s="92"/>
+      <c r="D328" s="92"/>
     </row>
     <row r="329" spans="2:4">
-      <c r="B329" s="90"/>
-      <c r="C329" s="90"/>
-      <c r="D329" s="90"/>
+      <c r="B329" s="92"/>
+      <c r="C329" s="92"/>
+      <c r="D329" s="92"/>
     </row>
     <row r="330" spans="2:4">
-      <c r="B330" s="90"/>
-      <c r="C330" s="90"/>
-      <c r="D330" s="90"/>
+      <c r="B330" s="92"/>
+      <c r="C330" s="92"/>
+      <c r="D330" s="92"/>
     </row>
     <row r="331" spans="2:4">
-      <c r="B331" s="90"/>
-      <c r="C331" s="90"/>
-      <c r="D331" s="90"/>
+      <c r="B331" s="92"/>
+      <c r="C331" s="92"/>
+      <c r="D331" s="92"/>
     </row>
     <row r="332" spans="2:4">
-      <c r="B332" s="90"/>
-      <c r="C332" s="90"/>
-      <c r="D332" s="90"/>
+      <c r="B332" s="92"/>
+      <c r="C332" s="92"/>
+      <c r="D332" s="92"/>
     </row>
     <row r="333" spans="2:4">
-      <c r="B333" s="90"/>
-      <c r="C333" s="90"/>
-      <c r="D333" s="90"/>
+      <c r="B333" s="92"/>
+      <c r="C333" s="92"/>
+      <c r="D333" s="92"/>
     </row>
     <row r="334" spans="2:4">
-      <c r="B334" s="90"/>
-      <c r="C334" s="90"/>
-      <c r="D334" s="90"/>
+      <c r="B334" s="92"/>
+      <c r="C334" s="92"/>
+      <c r="D334" s="92"/>
     </row>
     <row r="335" spans="2:4">
-      <c r="B335" s="90"/>
-      <c r="C335" s="90"/>
-      <c r="D335" s="90"/>
+      <c r="B335" s="92"/>
+      <c r="C335" s="92"/>
+      <c r="D335" s="92"/>
     </row>
     <row r="336" spans="2:4">
-      <c r="B336" s="90"/>
-      <c r="C336" s="90"/>
-      <c r="D336" s="90"/>
+      <c r="B336" s="92"/>
+      <c r="C336" s="92"/>
+      <c r="D336" s="92"/>
     </row>
     <row r="337" spans="2:4">
-      <c r="B337" s="90"/>
-      <c r="C337" s="90"/>
-      <c r="D337" s="90"/>
+      <c r="B337" s="92"/>
+      <c r="C337" s="92"/>
+      <c r="D337" s="92"/>
     </row>
     <row r="338" spans="2:4">
-      <c r="B338" s="90"/>
-      <c r="C338" s="90"/>
-      <c r="D338" s="90"/>
+      <c r="B338" s="92"/>
+      <c r="C338" s="92"/>
+      <c r="D338" s="92"/>
     </row>
     <row r="339" spans="2:4">
-      <c r="B339" s="90"/>
-      <c r="C339" s="90"/>
-      <c r="D339" s="90"/>
+      <c r="B339" s="92"/>
+      <c r="C339" s="92"/>
+      <c r="D339" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="335">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="B337:D337"/>
+    <mergeCell ref="B338:D338"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="B330:D330"/>
+    <mergeCell ref="B331:D331"/>
+    <mergeCell ref="B332:D332"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -4137,294 +4366,30 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="B336:D336"/>
-    <mergeCell ref="B337:D337"/>
-    <mergeCell ref="B338:D338"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="B330:D330"/>
-    <mergeCell ref="B331:D331"/>
-    <mergeCell ref="B332:D332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4452,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -4470,22 +4435,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="62" t="s">
+      <c r="E3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="F3" s="67" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
